--- a/biology/Botanique/Dasylepis/Dasylepis.xlsx
+++ b/biology/Botanique/Dasylepis/Dasylepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasylepis est un genre de plantes à fleurs de la famille des Achariaceae.
 </t>
@@ -511,26 +523,28 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (27 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 septembre 2017) :
 Dasylepis blackii (Oliv.) Chipp
 Dasylepis eggelingii J. B. Gillett
 Dasylepis integra Warb. ex Engl.
 Dasylepis racemosa Oliv.
 Dasylepis seretii De Wild
 Dasylepis thomasii Obama &amp; Breteler
-Selon NCBI  (27 septembre 2017)[3] :
+Selon NCBI  (27 septembre 2017) :
 Dasylepis blackii
 Dasylepis brevipedicellata
-Selon The Plant List            (27 septembre 2017)[4] :
+Selon The Plant List            (27 septembre 2017) :
 Dasylepis blackii (Oliv.) Chipp
 Dasylepis eggelingii J.B.Gillett
 Dasylepis integra Warb.
 Dasylepis racemosa Oliv.
 Dasylepis seretii De Wild.
 Dasylepis thomasii Obama &amp; Breteler
-Selon Tropicos                                           (27 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (27 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Dasylepis assinensis A. Chev. ex Hutch. &amp; Dalziel
 Dasylepis blackii (Oliv.) Chipp
 Dasylepis brevipedicellata Chipp
@@ -544,7 +558,7 @@
 Dasylepis racemosa Oliv.
 Dasylepis seretii De Wild.
 Dasylepis thomasii Obama &amp; Breteler
-Selon World Register of Marine Species                               (27 septembre 2017)[5] :
+Selon World Register of Marine Species                               (27 septembre 2017) :
 Acanthicolepis asperrima (M. Sars, 1861)
 Acanthicolepis zibrowii Barnich &amp; Fiege, 2010</t>
         </is>
